--- a/documents/scrum.xlsx
+++ b/documents/scrum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Priority</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin can add candidates</t>
+    <t xml:space="preserve">As an admin, I can add candidates</t>
   </si>
   <si>
     <t xml:space="preserve">***</t>
@@ -53,7 +53,25 @@
     <t xml:space="preserve">High </t>
   </si>
   <si>
-    <t xml:space="preserve">Admin can edit candidates</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">As an admin, I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> can edit candidates</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">*</t>
@@ -62,28 +80,82 @@
     <t xml:space="preserve">**</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin can delete candidates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin can add questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin can edit questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin can delete questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Candidate can answer questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Candidate can edit own answers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End user can answer questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End user can get a result based on their answers</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">As an admin, I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> can delete candidates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">As an admin, I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> can add questions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">As an admin, I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> can edit questions</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">As an admin, I can delete questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a candidate, I can answer questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a candidate, I can edit own answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an end user, I can answer questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an end user, I can get a result based on my answers</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint Backlog : Sprint 1</t>
@@ -116,100 +188,100 @@
     <t xml:space="preserve">DAY 5</t>
   </si>
   <si>
+    <t xml:space="preserve">Task : Make a list of categories of products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pekka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ongoing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task : List products based on categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task : Search products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task: Display products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Story #2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Story #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Story #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Story #5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Planning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If physically present mark X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/03/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 16</t>
+  </si>
+  <si>
     <t xml:space="preserve">User Story #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task : Make a list of categories of products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pekka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ongoing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task : List products based on categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task : Search products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task: Display products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Markku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story #3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story #4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story #5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring Planning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If physically present mark X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/03/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 16</t>
   </si>
 </sst>
 </file>
@@ -219,12 +291,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -246,6 +319,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -262,9 +336,13 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="28"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
       <family val="0"/>
     </font>
     <font>
@@ -285,21 +363,21 @@
     </font>
     <font>
       <b val="true"/>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -310,6 +388,7 @@
       <color rgb="FF808080"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -317,12 +396,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -330,6 +411,7 @@
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -337,6 +419,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -351,6 +434,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -498,7 +586,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -527,8 +615,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -539,43 +631,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -681,9 +777,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>129240</xdr:colOff>
+      <xdr:colOff>128880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -693,7 +789,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="53280" y="76320"/>
-          <a:ext cx="5928120" cy="2209680"/>
+          <a:ext cx="5937840" cy="2209320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -908,9 +1004,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
+      <xdr:colOff>227880</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -919,8 +1015,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6111360" y="91440"/>
-          <a:ext cx="7284240" cy="2203920"/>
+          <a:off x="6121440" y="91440"/>
+          <a:ext cx="7296840" cy="2203560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1157,9 +1253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>548280</xdr:colOff>
+      <xdr:colOff>547920</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1169,7 +1265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="91440" y="2598480"/>
-          <a:ext cx="6309000" cy="3733560"/>
+          <a:ext cx="6318720" cy="3733200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1477,9 +1573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>609120</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1488,8 +1584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6492240" y="2606040"/>
-          <a:ext cx="7284240" cy="2194200"/>
+          <a:off x="6502320" y="2606040"/>
+          <a:ext cx="7296840" cy="2193840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1665,9 +1761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>632160</xdr:colOff>
+      <xdr:colOff>631800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1677,7 +1773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10861560" y="769680"/>
-          <a:ext cx="4929840" cy="2773080"/>
+          <a:ext cx="4937040" cy="2772720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1945,11 +2041,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.41015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1969,11 +2065,11 @@
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.41015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.75"/>
@@ -2020,7 +2116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2040,8 +2136,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+    <row r="5" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="5" t="n">
@@ -2051,8 +2147,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
@@ -2062,7 +2158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2073,8 +2169,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="5" t="n">
@@ -2301,8 +2397,8 @@
       <c r="B55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2328,11 +2424,11 @@
   </sheetPr>
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.41015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.25"/>
@@ -2341,737 +2437,737 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="27.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="B4" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="15" t="n">
+      <c r="D4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="F4" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="15" t="n">
+      <c r="B5" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="C5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="n">
+      <c r="I5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="15" t="n">
+      <c r="C6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="15" t="n">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="15" t="n">
+      <c r="G7" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="H6" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16" t="n">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18" t="n">
         <f aca="false">SUM(E4:E27)</f>
         <v>8</v>
       </c>
-      <c r="F28" s="16" t="n">
+      <c r="F28" s="18" t="n">
         <f aca="false">SUM(F3:F27)</f>
         <v>10</v>
       </c>
-      <c r="G28" s="16" t="n">
+      <c r="G28" s="18" t="n">
         <f aca="false">SUM(G3:G27)</f>
         <v>22</v>
       </c>
-      <c r="H28" s="16" t="n">
+      <c r="H28" s="18" t="n">
         <f aca="false">SUM(H3:H27)</f>
         <v>14</v>
       </c>
-      <c r="I28" s="16" t="n">
+      <c r="I28" s="18" t="n">
         <f aca="false">SUM(I3:I27)</f>
         <v>15</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3094,11 +3190,11 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.41015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.13"/>
@@ -3108,53 +3204,53 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="17" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+      <c r="B2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="18" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3162,30 +3258,30 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>58</v>
+      <c r="A7" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3193,30 +3289,30 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="A8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>58</v>
+      <c r="A10" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3224,30 +3320,30 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="A11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>58</v>
+      <c r="A13" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3255,30 +3351,30 @@
       <c r="E13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="A14" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>58</v>
+      <c r="A16" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3304,11 +3400,11 @@
   </sheetPr>
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.41015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.25"/>
@@ -3317,737 +3413,737 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="27.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="B4" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="15" t="n">
+      <c r="D4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="F4" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="15" t="n">
+      <c r="B5" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="C5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="n">
+      <c r="I5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="15" t="n">
+      <c r="C6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="15" t="n">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="15" t="n">
+      <c r="G7" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="H6" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16" t="n">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18" t="n">
         <f aca="false">SUM(E4:E27)</f>
         <v>8</v>
       </c>
-      <c r="F28" s="16" t="n">
+      <c r="F28" s="18" t="n">
         <f aca="false">SUM(F3:F27)</f>
         <v>10</v>
       </c>
-      <c r="G28" s="16" t="n">
+      <c r="G28" s="18" t="n">
         <f aca="false">SUM(G3:G27)</f>
         <v>22</v>
       </c>
-      <c r="H28" s="16" t="n">
+      <c r="H28" s="18" t="n">
         <f aca="false">SUM(H3:H27)</f>
         <v>14</v>
       </c>
-      <c r="I28" s="16" t="n">
+      <c r="I28" s="18" t="n">
         <f aca="false">SUM(I3:I27)</f>
         <v>15</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documents/scrum.xlsx
+++ b/documents/scrum.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
   <si>
     <t xml:space="preserve">Product Backlog - Project Title</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Priority</t>
   </si>
   <si>
-    <t xml:space="preserve">As an admin, I can add candidates</t>
+    <t xml:space="preserve">As an admin, I can add, edit and delete candidates</t>
   </si>
   <si>
     <t xml:space="preserve">***</t>
@@ -53,25 +53,7 @@
     <t xml:space="preserve">High </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">As an admin, I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> can edit candidates</t>
-    </r>
+    <t xml:space="preserve">As an admin, I can add, edit and delete questions</t>
   </si>
   <si>
     <t xml:space="preserve">*</t>
@@ -80,82 +62,10 @@
     <t xml:space="preserve">**</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">As an admin, I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> can delete candidates</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">As an admin, I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> can add questions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">As an admin, I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> can edit questions</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">As an admin, I can delete questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a candidate, I can answer questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a candidate, I can edit own answers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an end user, I can answer questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an end user, I can get a result based on my answers</t>
+    <t xml:space="preserve">As a candidate, I can answer questions and change my own answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an end user, I can answer questions and get a result based on my answers</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint Backlog : Sprint 1</t>
@@ -188,21 +98,108 @@
     <t xml:space="preserve">DAY 5</t>
   </si>
   <si>
+    <t xml:space="preserve">Task : Create candidates page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ongoing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task : Add creating functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task : Add editing functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task: Add deleting functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task : Add questions page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task : Add main page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dawid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task : Create database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task : Add algorithm to calculate result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task : Add result page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Planning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pekka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If physically present mark X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/03/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Story #1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Task : Make a list of categories of products</t>
   </si>
   <si>
-    <t xml:space="preserve">Pekka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ongoing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Task : List products based on categories</t>
   </si>
   <si>
-    <t xml:space="preserve">Juha</t>
-  </si>
-  <si>
     <t xml:space="preserve">Task : Search products</t>
   </si>
   <si>
@@ -231,57 +228,6 @@
   </si>
   <si>
     <t xml:space="preserve">User Story #5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring Planning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If physically present mark X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/03/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story #1</t>
   </si>
 </sst>
 </file>
@@ -291,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -375,12 +321,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -586,7 +526,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -615,12 +555,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -631,47 +567,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -777,9 +709,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>128880</xdr:colOff>
+      <xdr:colOff>128520</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -789,7 +721,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="53280" y="76320"/>
-          <a:ext cx="5937840" cy="2209320"/>
+          <a:ext cx="5947560" cy="2208960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1004,9 +936,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
+      <xdr:colOff>227520</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1015,8 +947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6121440" y="91440"/>
-          <a:ext cx="7296840" cy="2203560"/>
+          <a:off x="6131520" y="91440"/>
+          <a:ext cx="7309080" cy="2203200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1253,9 +1185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>547920</xdr:colOff>
+      <xdr:colOff>547560</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1265,7 +1197,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="91440" y="2598480"/>
-          <a:ext cx="6318720" cy="3733200"/>
+          <a:ext cx="6328440" cy="3732840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1573,9 +1505,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>608760</xdr:colOff>
+      <xdr:colOff>608400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1584,8 +1516,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6502320" y="2606040"/>
-          <a:ext cx="7296840" cy="2193840"/>
+          <a:off x="6512400" y="2606040"/>
+          <a:ext cx="7309080" cy="2193480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1761,9 +1693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>631800</xdr:colOff>
+      <xdr:colOff>631440</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1773,7 +1705,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10861560" y="769680"/>
-          <a:ext cx="4937040" cy="2772720"/>
+          <a:ext cx="4944600" cy="2772360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2045,7 +1977,7 @@
       <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2066,12 +1998,12 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.26"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="22.76"/>
@@ -2116,8 +2048,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
@@ -2136,8 +2068,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="5" t="n">
@@ -2147,8 +2079,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
@@ -2159,9 +2091,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="5" t="n">
         <v>2</v>
       </c>
@@ -2170,9 +2100,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="5" t="n">
         <v>1</v>
       </c>
@@ -2181,9 +2109,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="5" t="n">
         <v>3</v>
       </c>
@@ -2192,9 +2118,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="5" t="n">
         <v>3</v>
       </c>
@@ -2203,9 +2127,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="5" t="n">
         <v>3</v>
       </c>
@@ -2214,9 +2136,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="5" t="n">
         <v>2</v>
       </c>
@@ -2397,8 +2317,8 @@
       <c r="B55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2425,749 +2345,863 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="27.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-    </row>
-    <row r="2" customFormat="false" ht="27.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="B4" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="D4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="E4" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="B5" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="B6" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-    </row>
-    <row r="3" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="B7" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="17" t="n">
+      <c r="C9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="17" t="n">
+      <c r="B14" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="D16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="H6" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="C17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18" t="n">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="n">
         <f aca="false">SUM(E4:E27)</f>
-        <v>8</v>
-      </c>
-      <c r="F28" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="F28" s="16" t="n">
         <f aca="false">SUM(F3:F27)</f>
-        <v>10</v>
-      </c>
-      <c r="G28" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G28" s="16" t="n">
         <f aca="false">SUM(G3:G27)</f>
-        <v>22</v>
-      </c>
-      <c r="H28" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="H28" s="16" t="n">
         <f aca="false">SUM(H3:H27)</f>
-        <v>14</v>
-      </c>
-      <c r="I28" s="18" t="n">
+        <v>12</v>
+      </c>
+      <c r="I28" s="16" t="n">
         <f aca="false">SUM(I3:I27)</f>
-        <v>15</v>
-      </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3194,7 +3228,7 @@
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.13"/>
@@ -3204,53 +3238,53 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>47</v>
+      <c r="A1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>50</v>
+      <c r="A2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>51</v>
+      <c r="A3" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
-        <v>53</v>
+      <c r="A4" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3258,30 +3292,30 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="A5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
-        <v>55</v>
+      <c r="A6" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
-        <v>57</v>
+      <c r="A7" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3289,30 +3323,30 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="A8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
-        <v>55</v>
+      <c r="A9" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>57</v>
+      <c r="A10" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3320,30 +3354,30 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="A11" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>55</v>
+      <c r="A12" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>57</v>
+      <c r="A13" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -3351,30 +3385,30 @@
       <c r="E13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="A14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
-        <v>55</v>
+      <c r="A15" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
-        <v>57</v>
+      <c r="A16" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3404,7 +3438,7 @@
       <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.25"/>
@@ -3413,737 +3447,737 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="27.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-    </row>
-    <row r="2" customFormat="false" ht="27.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="E4" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="17" t="n">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="17" t="n">
+      <c r="F7" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="H4" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="17" t="n">
+      <c r="G7" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="H6" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18" t="n">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="n">
         <f aca="false">SUM(E4:E27)</f>
         <v>8</v>
       </c>
-      <c r="F28" s="18" t="n">
+      <c r="F28" s="16" t="n">
         <f aca="false">SUM(F3:F27)</f>
         <v>10</v>
       </c>
-      <c r="G28" s="18" t="n">
+      <c r="G28" s="16" t="n">
         <f aca="false">SUM(G3:G27)</f>
         <v>22</v>
       </c>
-      <c r="H28" s="18" t="n">
+      <c r="H28" s="16" t="n">
         <f aca="false">SUM(H3:H27)</f>
         <v>14</v>
       </c>
-      <c r="I28" s="18" t="n">
+      <c r="I28" s="16" t="n">
         <f aca="false">SUM(I3:I27)</f>
         <v>15</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documents/scrum.xlsx
+++ b/documents/scrum.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Guide" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ProductBacklog" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="sprint_backlog_sprint1 (2)" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="sprint_planning_meetings" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="sprint2" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="sprint2" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="sprint_planning_meetings" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="52">
   <si>
     <t xml:space="preserve">Product Backlog - Project Title</t>
   </si>
@@ -41,27 +41,27 @@
     <t xml:space="preserve">As an admin, I can add, edit and delete candidates</t>
   </si>
   <si>
+    <t xml:space="preserve">**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an admin, I can add, edit and delete questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">***</t>
   </si>
   <si>
-    <t xml:space="preserve">Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As an admin, I can add, edit and delete questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**</t>
-  </si>
-  <si>
     <t xml:space="preserve">As a candidate, I can answer questions and change my own answers</t>
   </si>
   <si>
@@ -104,12 +104,15 @@
     <t xml:space="preserve">Martin</t>
   </si>
   <si>
+    <t xml:space="preserve">Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task : Add creating functionality</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ongoing</t>
   </si>
   <si>
-    <t xml:space="preserve">Task : Add creating functionality</t>
-  </si>
-  <si>
     <t xml:space="preserve">Task : Add editing functionality</t>
   </si>
   <si>
@@ -140,94 +143,43 @@
     <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
+    <t xml:space="preserve">Sprint Backlog : Sprint 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spring Planning </t>
   </si>
   <si>
     <t xml:space="preserve">Participants</t>
   </si>
   <si>
-    <t xml:space="preserve">Week 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pekka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online</t>
+    <t xml:space="preserve">Week 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">If physically present mark X</t>
   </si>
   <si>
-    <t xml:space="preserve">19/03/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location </t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
+    <t xml:space="preserve">3.4.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apt F 59</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task : Make a list of categories of products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task : List products based on categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task : Search products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task: Display products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Markku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story #3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story #4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story #5</t>
   </si>
 </sst>
 </file>
@@ -709,9 +661,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -721,7 +673,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="53280" y="76320"/>
-          <a:ext cx="5947560" cy="2208960"/>
+          <a:ext cx="5957640" cy="2208600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -936,9 +888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:colOff>227160</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -947,8 +899,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6131520" y="91440"/>
-          <a:ext cx="7309080" cy="2203200"/>
+          <a:off x="6141960" y="91440"/>
+          <a:ext cx="7321320" cy="2202840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1185,9 +1137,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>547560</xdr:colOff>
+      <xdr:colOff>547200</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1197,7 +1149,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="91440" y="2598480"/>
-          <a:ext cx="6328440" cy="3732840"/>
+          <a:ext cx="6338520" cy="3732480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1505,9 +1457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>608400</xdr:colOff>
+      <xdr:colOff>608040</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1516,8 +1468,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6512400" y="2606040"/>
-          <a:ext cx="7309080" cy="2193480"/>
+          <a:off x="6522840" y="2606040"/>
+          <a:ext cx="7321320" cy="2193120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1693,9 +1645,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>631440</xdr:colOff>
+      <xdr:colOff>631080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1705,7 +1657,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10861560" y="769680"/>
-          <a:ext cx="4944600" cy="2772360"/>
+          <a:ext cx="4951800" cy="2772000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1977,7 +1929,7 @@
       <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1998,12 +1950,12 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.26"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="22.76"/>
@@ -2033,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>5</v>
@@ -2053,19 +2005,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,7 +2025,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
@@ -2084,65 +2036,41 @@
         <v>13</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
-      <c r="B7" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
-      <c r="B8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
-      <c r="B9" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
-      <c r="B10" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
-      <c r="B11" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
-      <c r="B12" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
@@ -2345,10 +2273,10 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="66.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.25"/>
@@ -2491,7 +2419,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="15" t="n">
         <v>1</v>
@@ -2521,7 +2449,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="15" t="n">
         <v>2</v>
@@ -2530,7 +2458,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="15" t="n">
         <v>1</v>
@@ -2560,7 +2488,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="15" t="n">
         <v>2</v>
@@ -2569,7 +2497,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="15" t="n">
         <v>1</v>
@@ -2622,13 +2550,13 @@
     </row>
     <row r="9" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="15" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>26</v>
@@ -2667,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>26</v>
@@ -2700,16 +2628,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="15" t="n">
         <v>1</v>
@@ -2739,16 +2667,16 @@
     </row>
     <row r="12" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="15" t="n">
         <v>1</v>
@@ -2801,13 +2729,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="15" t="n">
         <v>5</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>26</v>
@@ -2840,13 +2768,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>33</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>26</v>
@@ -2879,16 +2807,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="15" t="n">
         <v>1</v>
@@ -2918,16 +2846,16 @@
     </row>
     <row r="17" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" s="15" t="n">
         <v>1</v>
@@ -3167,7 +3095,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -3222,225 +3150,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.37"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.88"/>
@@ -3448,7 +3166,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3509,8 +3227,8 @@
       <c r="S2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>55</v>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
@@ -3533,31 +3251,31 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -3572,26 +3290,28 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B5" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="E5" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="15" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="15" t="n">
         <v>1</v>
@@ -3609,29 +3329,31 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -3646,29 +3368,31 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B7" s="15" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" s="15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -3682,8 +3406,8 @@
       <c r="S7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>62</v>
+      <c r="A8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -3704,18 +3428,34 @@
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="B9" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -3727,18 +3467,34 @@
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
@@ -3750,18 +3506,34 @@
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -3773,18 +3545,34 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="B12" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -3797,8 +3585,8 @@
       <c r="S12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>65</v>
+      <c r="A13" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -3819,18 +3607,34 @@
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="B14" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -3842,18 +3646,34 @@
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="B15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -3865,18 +3685,34 @@
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="B16" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
@@ -3888,18 +3724,34 @@
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="B17" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -3912,8 +3764,8 @@
       <c r="S17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>66</v>
+      <c r="A18" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -3934,18 +3786,34 @@
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="B19" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -3957,18 +3825,34 @@
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="B20" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
@@ -3980,18 +3864,34 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="B21" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -4003,18 +3903,34 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="B22" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -4027,9 +3943,7 @@
       <c r="S22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -4050,9 +3964,7 @@
       <c r="S23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
-        <v>63</v>
-      </c>
+      <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -4073,9 +3985,7 @@
       <c r="S24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -4096,9 +4006,7 @@
       <c r="S25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -4119,9 +4027,7 @@
       <c r="S26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -4143,30 +4049,30 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16" t="n">
         <f aca="false">SUM(E4:E27)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F28" s="16" t="n">
         <f aca="false">SUM(F3:F27)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G28" s="16" t="n">
         <f aca="false">SUM(G3:G27)</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H28" s="16" t="n">
         <f aca="false">SUM(H3:H27)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I28" s="16" t="n">
         <f aca="false">SUM(I3:I27)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -4191,4 +4097,143 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>